--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H2">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I2">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J2">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N2">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O2">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P2">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q2">
-        <v>34.66360076742</v>
+        <v>11.48581283094</v>
       </c>
       <c r="R2">
-        <v>311.97240690678</v>
+        <v>103.37231547846</v>
       </c>
       <c r="S2">
-        <v>0.008398356647718564</v>
+        <v>0.001956368598661817</v>
       </c>
       <c r="T2">
-        <v>0.00908334280392795</v>
+        <v>0.002123365643397754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H3">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I3">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J3">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O3">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P3">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q3">
-        <v>36.15773520383999</v>
+        <v>12.638835772416</v>
       </c>
       <c r="R3">
-        <v>325.41961683456</v>
+        <v>113.749521951744</v>
       </c>
       <c r="S3">
-        <v>0.008760358101661198</v>
+        <v>0.002152762002371471</v>
       </c>
       <c r="T3">
-        <v>0.009474869794220098</v>
+        <v>0.002336523330713053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H4">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I4">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J4">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N4">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O4">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P4">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q4">
-        <v>84.00536801549998</v>
+        <v>47.47350305753999</v>
       </c>
       <c r="R4">
-        <v>756.0483121395</v>
+        <v>427.26152751786</v>
       </c>
       <c r="S4">
-        <v>0.02035296464584598</v>
+        <v>0.008086120853376821</v>
       </c>
       <c r="T4">
-        <v>0.02201299167315862</v>
+        <v>0.008776358003377709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H5">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I5">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J5">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N5">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O5">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P5">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q5">
-        <v>7.44734299572</v>
+        <v>2.654931535578</v>
       </c>
       <c r="R5">
-        <v>44.68405797432001</v>
+        <v>15.929589213468</v>
       </c>
       <c r="S5">
-        <v>0.001804355034423638</v>
+        <v>0.0004522121998897937</v>
       </c>
       <c r="T5">
-        <v>0.001301014472644113</v>
+        <v>0.0003272089078469513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H6">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I6">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J6">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N6">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O6">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P6">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q6">
-        <v>75.20997756527998</v>
+        <v>45.883546353792</v>
       </c>
       <c r="R6">
-        <v>676.8897980875199</v>
+        <v>412.951917184128</v>
       </c>
       <c r="S6">
-        <v>0.01822200236202253</v>
+        <v>0.00781530489857862</v>
       </c>
       <c r="T6">
-        <v>0.01970822399798876</v>
+        <v>0.008482425001950579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
         <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J7">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N7">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O7">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P7">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q7">
-        <v>345.572879122509</v>
+        <v>327.5833812446555</v>
       </c>
       <c r="R7">
-        <v>3110.15591210258</v>
+        <v>2948.2504312019</v>
       </c>
       <c r="S7">
-        <v>0.08372598986824126</v>
+        <v>0.05579699494877257</v>
       </c>
       <c r="T7">
-        <v>0.0905548429856249</v>
+        <v>0.06055986696990635</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
         <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J8">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O8">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P8">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q8">
-        <v>360.4683985595734</v>
+        <v>360.4683985595732</v>
       </c>
       <c r="R8">
-        <v>3244.21558703616</v>
+        <v>3244.215587036159</v>
       </c>
       <c r="S8">
-        <v>0.0873349018657239</v>
+        <v>0.0613982716009614</v>
       </c>
       <c r="T8">
-        <v>0.09445810480188135</v>
+        <v>0.06663927266603085</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
         <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J9">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N9">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O9">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P9">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q9">
-        <v>837.4772454149445</v>
+        <v>1353.977370171433</v>
       </c>
       <c r="R9">
-        <v>7537.2952087345</v>
+        <v>12185.7963315429</v>
       </c>
       <c r="S9">
-        <v>0.202905423430629</v>
+        <v>0.2306217983255534</v>
       </c>
       <c r="T9">
-        <v>0.2194547808704015</v>
+        <v>0.250307842559957</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
         <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J10">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N10">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O10">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P10">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q10">
-        <v>74.24502082492002</v>
+        <v>75.72049642450332</v>
       </c>
       <c r="R10">
-        <v>445.4701249495201</v>
+        <v>454.3229785470199</v>
       </c>
       <c r="S10">
-        <v>0.01798821098790828</v>
+        <v>0.01289740688451207</v>
       </c>
       <c r="T10">
-        <v>0.01297024276584241</v>
+        <v>0.009332225936777948</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
         <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J11">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N11">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O11">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P11">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q11">
-        <v>749.7930945016357</v>
+        <v>1308.630697653547</v>
       </c>
       <c r="R11">
-        <v>6748.13785051472</v>
+        <v>11777.67627888192</v>
       </c>
       <c r="S11">
-        <v>0.1816611569545829</v>
+        <v>0.2228979386846564</v>
       </c>
       <c r="T11">
-        <v>0.1964777910717674</v>
+        <v>0.2419246686493119</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H12">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I12">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J12">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N12">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O12">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P12">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q12">
-        <v>38.90783840491811</v>
+        <v>47.14782670098722</v>
       </c>
       <c r="R12">
-        <v>350.170545644263</v>
+        <v>424.330440308885</v>
       </c>
       <c r="S12">
-        <v>0.009426657822098623</v>
+        <v>0.00803064868029995</v>
       </c>
       <c r="T12">
-        <v>0.01019551420416411</v>
+        <v>0.008716150685310651</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H13">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I13">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J13">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O13">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P13">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q13">
-        <v>40.58491579793066</v>
+        <v>51.88084182382932</v>
       </c>
       <c r="R13">
-        <v>365.2642421813759</v>
+        <v>466.9275764144639</v>
       </c>
       <c r="S13">
-        <v>0.009832983009341824</v>
+        <v>0.008836819066289253</v>
       </c>
       <c r="T13">
-        <v>0.01063498005687981</v>
+        <v>0.009591136361069955</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H14">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I14">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J14">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N14">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O14">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P14">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q14">
-        <v>94.29104915623053</v>
+        <v>194.8727989904483</v>
       </c>
       <c r="R14">
-        <v>848.6194424060749</v>
+        <v>1753.855190914035</v>
       </c>
       <c r="S14">
-        <v>0.02284499711426046</v>
+        <v>0.03319251587064633</v>
       </c>
       <c r="T14">
-        <v>0.02470827911314566</v>
+        <v>0.03602585313722287</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H15">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I15">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J15">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N15">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O15">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P15">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q15">
-        <v>8.359201335361998</v>
+        <v>10.89816226198883</v>
       </c>
       <c r="R15">
-        <v>50.155208012172</v>
+        <v>65.38897357193299</v>
       </c>
       <c r="S15">
-        <v>0.002025281636939432</v>
+        <v>0.001856274583810303</v>
       </c>
       <c r="T15">
-        <v>0.001460311674016101</v>
+        <v>0.001343151687151844</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H16">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I16">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J16">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N16">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O16">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P16">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q16">
-        <v>84.41874441093242</v>
+        <v>188.3462253614186</v>
       </c>
       <c r="R16">
-        <v>759.7686996983919</v>
+        <v>1695.116028252768</v>
       </c>
       <c r="S16">
-        <v>0.02045311818793999</v>
+        <v>0.03208085021035514</v>
       </c>
       <c r="T16">
-        <v>0.02212131393119402</v>
+        <v>0.03481929488862801</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H17">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I17">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J17">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N17">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O17">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P17">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q17">
-        <v>118.6416032220187</v>
+        <v>120.9213183543133</v>
       </c>
       <c r="R17">
-        <v>711.8496193321121</v>
+        <v>725.52791012588</v>
       </c>
       <c r="S17">
-        <v>0.02874469111853292</v>
+        <v>0.02059642392046595</v>
       </c>
       <c r="T17">
-        <v>0.02072610902146637</v>
+        <v>0.0149030330853765</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H18">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I18">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J18">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O18">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P18">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q18">
-        <v>123.755512367104</v>
+        <v>133.060211459072</v>
       </c>
       <c r="R18">
-        <v>742.533074202624</v>
+        <v>798.361268754432</v>
       </c>
       <c r="S18">
-        <v>0.02998369779740117</v>
+        <v>0.02266403111920861</v>
       </c>
       <c r="T18">
-        <v>0.02161948398933971</v>
+        <v>0.0163990995195018</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H19">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I19">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J19">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N19">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O19">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P19">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q19">
-        <v>287.5215303651333</v>
+        <v>499.79558792318</v>
       </c>
       <c r="R19">
-        <v>1725.1291821908</v>
+        <v>2998.77352753908</v>
       </c>
       <c r="S19">
-        <v>0.06966120952367402</v>
+        <v>0.08512975166448089</v>
       </c>
       <c r="T19">
-        <v>0.0502286080306494</v>
+        <v>0.06159765940460126</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H20">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I20">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J20">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N20">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O20">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P20">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q20">
-        <v>25.489697930832</v>
+        <v>27.950814291326</v>
       </c>
       <c r="R20">
-        <v>101.958791723328</v>
+        <v>111.803257165304</v>
       </c>
       <c r="S20">
-        <v>0.006175687733714756</v>
+        <v>0.004760838104489897</v>
       </c>
       <c r="T20">
-        <v>0.002968617212912726</v>
+        <v>0.002296545201546132</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H21">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I21">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J21">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N21">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O21">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P21">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q21">
-        <v>257.4179288674347</v>
+        <v>483.056706350464</v>
       </c>
       <c r="R21">
-        <v>1544.507573204608</v>
+        <v>2898.340238102784</v>
       </c>
       <c r="S21">
-        <v>0.0623676573201738</v>
+        <v>0.08227863239520576</v>
       </c>
       <c r="T21">
-        <v>0.04496965577751359</v>
+        <v>0.05953466415045229</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H22">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I22">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J22">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N22">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O22">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P22">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q22">
-        <v>64.66078504920245</v>
+        <v>54.16463418178778</v>
       </c>
       <c r="R22">
-        <v>581.947065442822</v>
+        <v>487.4817076360901</v>
       </c>
       <c r="S22">
-        <v>0.01566612590562354</v>
+        <v>0.009225815449979068</v>
       </c>
       <c r="T22">
-        <v>0.01694388533129648</v>
+        <v>0.01001333775864805</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H23">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I23">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J23">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O23">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P23">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q23">
-        <v>67.44791343428265</v>
+        <v>59.60204350993066</v>
       </c>
       <c r="R23">
-        <v>607.0312209085439</v>
+        <v>536.418391589376</v>
       </c>
       <c r="S23">
-        <v>0.01634139615114528</v>
+        <v>0.01015196469376567</v>
       </c>
       <c r="T23">
-        <v>0.01767423191964158</v>
+        <v>0.01101854377466183</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H24">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I24">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J24">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N24">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O24">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P24">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q24">
-        <v>156.7019272081722</v>
+        <v>223.8748762745766</v>
       </c>
       <c r="R24">
-        <v>1410.31734487355</v>
+        <v>2014.87388647119</v>
       </c>
       <c r="S24">
-        <v>0.03796601169362637</v>
+        <v>0.03813241469450591</v>
       </c>
       <c r="T24">
-        <v>0.04106259278770057</v>
+        <v>0.04138742531315086</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H25">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I25">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J25">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N25">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O25">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P25">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q25">
-        <v>13.892124129428</v>
+        <v>12.52008869715367</v>
       </c>
       <c r="R25">
-        <v>83.352744776568</v>
+        <v>75.12053218292201</v>
       </c>
       <c r="S25">
-        <v>0.003365807661360188</v>
+        <v>0.002132535915402653</v>
       </c>
       <c r="T25">
-        <v>0.002426886281260498</v>
+        <v>0.001543047153511901</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H26">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I26">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J26">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N26">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O26">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P26">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q26">
-        <v>140.2951824172498</v>
+        <v>216.3769808717013</v>
       </c>
       <c r="R26">
-        <v>1262.656641755248</v>
+        <v>1947.392827845312</v>
       </c>
       <c r="S26">
-        <v>0.03399095742541045</v>
+        <v>0.03685530463376017</v>
       </c>
       <c r="T26">
-        <v>0.0367633254313624</v>
+        <v>0.04000130020989576</v>
       </c>
     </row>
   </sheetData>
